--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>5.134638212427312e-25</v>
+        <v>2.122290376715022e-27</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>5.496792380830478e-25</v>
+        <v>5.560898530573293e-27</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>6.680119861571635e-25</v>
+        <v>8.179302419905297e-27</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>8.670754488227693e-25</v>
+        <v>8.179022281811062e-27</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>1.070825471249215e-24</v>
+        <v>8.302179084825913e-27</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>2.030324829402128e-24</v>
+        <v>8.688686149983958e-27</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>3.093192052483522e-24</v>
+        <v>7.457234045886182e-27</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>8.042366646999828e-24</v>
+        <v>7.843729221980276e-27</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>1.231935317710074e-23</v>
+        <v>5.776769166748492e-27</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.220807645949079e-23</v>
+        <v>6.883230767515158e-27</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>9.029510219683979e-24</v>
+        <v>5.075510056644155e-27</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>4.290597020327434e-24</v>
+        <v>4.285084939188601e-27</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>3.214007363028449e-24</v>
+        <v>4.392326256438407e-28</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>3.992513888237928e-24</v>
+        <v>2.71621855275938e-28</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.723178533617244e-24</v>
+        <v>2.744337983598428e-28</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.210042899134154e-24</v>
+        <v>2.325144830619405e-28</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>6.633557098689966e-25</v>
+        <v>2.355296896785267e-28</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>3.11950705950855e-25</v>
+        <v>2.99767991497335e-28</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>2.343577035700134e-25</v>
+        <v>2.435655965972705e-28</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>2.293585876546438e-25</v>
+        <v>2.799912729220154e-28</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>2.601201168842002e-25</v>
+        <v>5.273181948546079e-28</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>3.139323744811052e-25</v>
+        <v>5.838542576348438e-28</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>2.902153717032766e-25</v>
+        <v>7.578634894162735e-28</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>5.833468665908809e-25</v>
+        <v>8.105148503532278e-28</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>8.404285177231662e-25</v>
+        <v>6.941440475427249e-28</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.841572568477993e-24</v>
+        <v>8.254053311258822e-28</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>4.160944384212562e-24</v>
+        <v>7.360089819106114e-28</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>3.687948510377051e-24</v>
+        <v>7.607052604893408e-28</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>1.806591493163383e-24</v>
+        <v>7.360325976008501e-28</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>8.47438610793927e-25</v>
+        <v>7.18262966951381e-28</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.816393080323693e-25</v>
+        <v>6.637924057249991e-28</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>3.557267644569113e-25</v>
+        <v>6.002150199355588e-28</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>2.242785167491628e-25</v>
+        <v>6.999714231989598e-28</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.795219727900163e-25</v>
+        <v>5.987345149680012e-28</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.090986606826313e-25</v>
+        <v>5.683102915707541e-28</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.178131594705929e-25</v>
+        <v>3.605965106009523e-28</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>2.26940225989955e-25</v>
+        <v>3.600446198714221e-28</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.232337524215802e-25</v>
+        <v>2.897796699651276e-28</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>4.947301673124802e-26</v>
+        <v>3.499610435241338e-28</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.842996472263276e-26</v>
+        <v>5.204349180897359e-28</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>2.831612166760086e-26</v>
+        <v>5.190565052126485e-28</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>2.92567648816763e-26</v>
+        <v>4.735491480122325e-28</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>4.258984268507275e-26</v>
+        <v>4.023211465427989e-28</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>9.335045136059598e-26</v>
+        <v>3.996001343055058e-28</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00829953367353e-25</v>
+        <v>3.636789444946214e-28</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>1.043351596151e-25</v>
+        <v>1.896647744071685e-28</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>1.025382259466835e-25</v>
+        <v>1.956545824444474e-28</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>8.647919022021359e-26</v>
+        <v>2.292160279359214e-28</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>6.81000221016609e-26</v>
+        <v>2.919721435563644e-28</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>4.60557427346532e-26</v>
+        <v>3.54032588444448e-28</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>3.77150131016266e-26</v>
+        <v>6.591650249182454e-28</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>3.466866318401659e-26</v>
+        <v>9.860695915278797e-28</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>3.382981835346677e-26</v>
+        <v>2.540039638234063e-27</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>3.122884881059891e-26</v>
+        <v>3.85421921503705e-27</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>2.83151738459076e-26</v>
+        <v>3.750730375254129e-27</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2.661416621487574e-26</v>
+        <v>2.73344512074112e-27</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>2.990947365073449e-26</v>
+        <v>1.279491330902593e-27</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>3.797142825688592e-26</v>
+        <v>9.548097257647506e-28</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>5.213061115016752e-26</v>
+        <v>1.181982081164338e-27</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>6.163565280963223e-26</v>
+        <v>5.081278590417028e-28</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>7.379756702755338e-26</v>
+        <v>3.549974831070991e-28</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>8.595195091238224e-26</v>
+        <v>1.928337199989157e-28</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>8.896227639930847e-26</v>
+        <v>8.898611735218782e-29</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>1.028610876812171e-25</v>
+        <v>6.66097704740887e-29</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>1.13624407907591e-25</v>
+        <v>6.484125027913235e-29</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>1.105599753990655e-25</v>
+        <v>7.286421801595082e-29</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>1.156582420721491e-25</v>
+        <v>8.710364344542307e-29</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.118444938962108e-25</v>
+        <v>7.990634754981944e-29</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.076498205079933e-25</v>
+        <v>1.589509766529314e-28</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.023339190692903e-25</v>
+        <v>2.26823972647463e-28</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.00199017848331e-25</v>
+        <v>4.883389135491066e-28</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>9.234775333958437e-26</v>
+        <v>1.082460535005367e-27</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>8.819035804345687e-26</v>
+        <v>9.419698880745503e-28</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>6.505789218609075e-26</v>
+        <v>4.530896925325444e-28</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>5.694700959745807e-26</v>
+        <v>2.08633670618163e-28</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>4.555762074989444e-26</v>
+        <v>9.220809910455244e-29</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>3.181119446387058e-26</v>
+        <v>8.44206528905428e-29</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>2.743176421655949e-26</v>
+        <v>5.222995084922254e-29</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>2.237847350411985e-26</v>
+        <v>4.106518248844069e-29</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>2.065258766597396e-26</v>
+        <v>2.471652233338824e-29</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.067788339944779e-26</v>
+        <v>2.645610478852362e-29</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>2.003566248159586e-26</v>
+        <v>5.003058170310965e-29</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.843382012930732e-26</v>
+        <v>2.617637804628145e-29</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.797048188667958e-26</v>
+        <v>1.03161160937704e-29</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.773186045941098e-26</v>
+        <v>7.870203468074263e-30</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.925207395587456e-26</v>
+        <v>5.588067101120685e-30</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>2.029489203076822e-26</v>
+        <v>5.564858180017361e-30</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>2.070361610562304e-26</v>
+        <v>7.807603960397987e-30</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>2.015656482993635e-26</v>
+        <v>1.695040200085132e-29</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.917666590348728e-26</v>
+        <v>1.818403152711454e-29</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>1.723046079249586e-26</v>
+        <v>1.84329282638928e-29</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>1.402660313256473e-26</v>
+        <v>1.794987582818763e-29</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>7.879118831562885e-27</v>
+        <v>1.499529866977292e-29</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>6.294478244680606e-27</v>
+        <v>1.159393275875286e-29</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>4.787245560641209e-27</v>
+        <v>7.700509229979084e-30</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>3.329832356947547e-27</v>
+        <v>6.189474814357723e-30</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.942166592110359e-27</v>
+        <v>5.667231096342778e-30</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.780219074003435e-27</v>
+        <v>5.498484377523889e-30</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>2.746265611241292e-27</v>
+        <v>5.031105894654035e-30</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>2.554719933757905e-27</v>
+        <v>4.479760772326229e-30</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.510655456891364e-27</v>
+        <v>4.057142698279777e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>2.510987758256338e-27</v>
+        <v>4.424815146855744e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>2.494383951517215e-27</v>
+        <v>5.378291593358015e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>2.400339125929278e-27</v>
+        <v>7.248634172488126e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.306970733500619e-27</v>
+        <v>8.410293645806466e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>2.259793517057228e-27</v>
+        <v>9.888930171813299e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.987431951679943e-27</v>
+        <v>1.138691383359758e-29</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.994380239167433e-27</v>
+        <v>1.169825109371657e-29</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.991153504380035e-27</v>
+        <v>1.335908644058611e-29</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.919909082168369e-27</v>
+        <v>1.449190196731954e-29</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.60621799081482e-27</v>
+        <v>1.400982986632282e-29</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>1.322760485806816e-27</v>
+        <v>1.448152517627452e-29</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>1.194695949400341e-27</v>
+        <v>1.387267531965559e-29</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.147451259453728e-27</v>
+        <v>1.32816677190004e-29</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>1.363803956988677e-27</v>
+        <v>1.255337209931116e-29</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>2.239605210778169e-27</v>
+        <v>1.224239865910192e-29</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.671690823327871e-27</v>
+        <v>1.12258483527193e-29</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>2.748068146225365e-27</v>
+        <v>1.068435902721392e-29</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>2.712436329925475e-27</v>
+        <v>7.736691181752956e-30</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.703425450604801e-27</v>
+        <v>6.705542089075101e-30</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.694110831510583e-27</v>
+        <v>5.319126400279476e-30</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>2.440446760744801e-27</v>
+        <v>3.646491845212757e-30</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.183760461262262e-27</v>
+        <v>3.113613584991279e-30</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.222143615549851e-27</v>
+        <v>2.517430783996325e-30</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>6.430023156830589e-28</v>
+        <v>2.31088974586641e-30</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.709209524068555e-28</v>
+        <v>2.313208273001797e-30</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>4.386553205833709e-28</v>
+        <v>2.233278001327079e-30</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>5.561223017239688e-28</v>
+        <v>2.035946809784868e-30</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>5.977245983909487e-28</v>
+        <v>1.973714684101502e-30</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>8.414983719473609e-28</v>
+        <v>1.939372045670913e-30</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>1.008338567448611e-27</v>
+        <v>2.095261320262397e-30</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>9.941277177700302e-28</v>
+        <v>2.196083830659269e-30</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>9.074976839027548e-28</v>
+        <v>2.228733387064604e-30</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>7.769003734794268e-28</v>
+        <v>2.156799661758162e-30</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>7.68860842649972e-28</v>
+        <v>2.041343699448619e-30</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>6.543844914800353e-28</v>
+        <v>1.816735753232623e-30</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>5.274475955680847e-28</v>
+        <v>1.465708039691256e-30</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>4.567705345580673e-28</v>
+        <v>8.082255015087751e-31</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>4.361034837149025e-28</v>
+        <v>6.397150922622546e-31</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>4.107435114741385e-28</v>
+        <v>4.824506495164352e-31</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>3.976647154997026e-28</v>
+        <v>3.296201575302278e-31</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>3.627147959898158e-28</v>
+        <v>2.881469294462219e-31</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>3.829219925432281e-28</v>
+        <v>2.70419969597295e-31</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.204704777885999e-28</v>
+        <v>2.656243219227222e-31</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>4.542964753294816e-28</v>
+        <v>2.461290562155832e-31</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>4.868227802702829e-28</v>
+        <v>2.413936402441479e-31</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>5.360961106907683e-28</v>
+        <v>2.412297954297406e-31</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>5.731496719558944e-28</v>
+        <v>2.395109823248806e-31</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>5.463493432720301e-28</v>
+        <v>2.29560409133382e-31</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>5.254518613889512e-28</v>
+        <v>2.198269230133819e-31</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>4.466763673474969e-28</v>
+        <v>2.145230269402917e-31</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>4.379252378827048e-28</v>
+        <v>1.880147475554179e-31</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>3.724890552316495e-28</v>
+        <v>1.882342287580161e-31</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>3.522057865515367e-28</v>
+        <v>1.876838090510267e-31</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>3.420730935491033e-28</v>
+        <v>1.799402204789295e-31</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>4.201185164499853e-28</v>
+        <v>1.491695187053297e-31</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>3.61354786529916e-28</v>
+        <v>1.217241707674689e-31</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>3.65586092372937e-28</v>
+        <v>1.089805985351076e-31</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>3.248569622149224e-28</v>
+        <v>1.04397212868735e-31</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>2.982637400108803e-28</v>
+        <v>1.231990888757132e-31</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>2.77424002314301e-28</v>
+        <v>2.004319482737067e-31</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>2.550195331600653e-28</v>
+        <v>2.378830254053828e-31</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>2.309024174113213e-28</v>
+        <v>2.432933684730987e-31</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>2.300058989690445e-28</v>
+        <v>2.38704010785552e-31</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>1.120351303339246e-28</v>
+        <v>2.370265196335566e-31</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>4.384042072950077e-29</v>
+        <v>2.357877404707218e-31</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.637611190456844e-29</v>
+        <v>2.11213772940313e-31</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>3.705981078521646e-29</v>
+        <v>1.881880422447116e-31</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>2.292185031416285e-29</v>
+        <v>1.032658426768331e-31</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>1.822569896190949e-29</v>
+        <v>5.238405287271979e-32</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>1.496681454093882e-29</v>
+        <v>3.69629275212242e-32</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>1.493186214790258e-29</v>
+        <v>3.318376727645166e-32</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>1.87431030567674e-29</v>
+        <v>4.134176318675053e-32</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>3.130972020913886e-29</v>
+        <v>4.414372256065105e-32</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>3.135280018517485e-29</v>
+        <v>6.134221132338992e-32</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>2.444048231305594e-29</v>
+        <v>7.218661033765018e-32</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>2.092984948995064e-29</v>
+        <v>7.050312352176027e-32</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>6.377577340360579e-32</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.409878856655683e-32</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.353303980304275e-32</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.516180733482062e-32</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.605798925709321e-32</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>3.092773284176539e-32</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.937739808428389e-32</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.742879229946818e-32</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.645522053495029e-32</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.401206244456279e-32</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.507782139269981e-32</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.730179927660486e-32</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.92468705280188e-32</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.103663864158844e-32</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.387244400145633e-32</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.58680486114625e-32</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.418897674266127e-32</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.260595694129645e-32</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.744964673836615e-32</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.690243595420593e-32</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.271401604133185e-32</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.142495106502318e-32</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.07962969462226e-32</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.537816003226359e-32</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.176611280639038e-32</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.184707386372817e-32</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.934417623452709e-32</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.769330102675671e-32</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.639739498533643e-32</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.501241333221798e-32</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.35429086368939e-32</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.345033653070471e-32</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.489694671475201e-33</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.514829269692517e-33</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.505144851243514e-33</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.113169729855223e-33</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.305763239504136e-33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.034230335759312e-33</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>8.432169445682659e-34</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>8.362677217639653e-34</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.029913049168867e-33</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.686916890110024e-33</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.657519246538641e-33</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.26602751528069e-33</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.07650583023073e-33</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.122290376715022e-27</v>
+        <v>5.134638212427312e-25</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>5.560898530573293e-27</v>
+        <v>5.496792380830478e-25</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>8.179302419905297e-27</v>
+        <v>6.680119861571635e-25</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>8.179022281811062e-27</v>
+        <v>8.670754488227693e-25</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>8.302179084825913e-27</v>
+        <v>1.070825471249215e-24</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>8.688686149983958e-27</v>
+        <v>2.030324829402128e-24</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>7.457234045886182e-27</v>
+        <v>3.093192052483522e-24</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.843729221980276e-27</v>
+        <v>8.042366646999828e-24</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>5.776769166748492e-27</v>
+        <v>1.231935317710074e-23</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>6.883230767515158e-27</v>
+        <v>1.220807645949079e-23</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>5.075510056644155e-27</v>
+        <v>9.029510219683979e-24</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>4.285084939188601e-27</v>
+        <v>4.290597020327434e-24</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>4.392326256438407e-28</v>
+        <v>3.214007363028449e-24</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.71621855275938e-28</v>
+        <v>3.992513888237928e-24</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.744337983598428e-28</v>
+        <v>1.723178533617244e-24</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>2.325144830619405e-28</v>
+        <v>1.210042899134154e-24</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>2.355296896785267e-28</v>
+        <v>6.633557098689966e-25</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.99767991497335e-28</v>
+        <v>3.11950705950855e-25</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>2.435655965972705e-28</v>
+        <v>2.343577035700134e-25</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.799912729220154e-28</v>
+        <v>2.293585876546438e-25</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>5.273181948546079e-28</v>
+        <v>2.601201168842002e-25</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>5.838542576348438e-28</v>
+        <v>3.139323744811052e-25</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>7.578634894162735e-28</v>
+        <v>2.902153717032766e-25</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>8.105148503532278e-28</v>
+        <v>5.833468665908809e-25</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>6.941440475427249e-28</v>
+        <v>8.404285177231662e-25</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>8.254053311258822e-28</v>
+        <v>1.841572568477993e-24</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>7.360089819106114e-28</v>
+        <v>4.160944384212562e-24</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>7.607052604893408e-28</v>
+        <v>3.687948510377051e-24</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>7.360325976008501e-28</v>
+        <v>1.806591493163383e-24</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>7.18262966951381e-28</v>
+        <v>8.47438610793927e-25</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>6.637924057249991e-28</v>
+        <v>3.816393080323693e-25</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>6.002150199355588e-28</v>
+        <v>3.557267644569113e-25</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>6.999714231989598e-28</v>
+        <v>2.242785167491628e-25</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>5.987345149680012e-28</v>
+        <v>1.795219727900163e-25</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>5.683102915707541e-28</v>
+        <v>1.090986606826313e-25</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>3.605965106009523e-28</v>
+        <v>1.178131594705929e-25</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>3.600446198714221e-28</v>
+        <v>2.26940225989955e-25</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>2.897796699651276e-28</v>
+        <v>1.232337524215802e-25</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>3.499610435241338e-28</v>
+        <v>4.947301673124802e-26</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>5.204349180897359e-28</v>
+        <v>3.842996472263276e-26</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>5.190565052126485e-28</v>
+        <v>2.831612166760086e-26</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>4.735491480122325e-28</v>
+        <v>2.92567648816763e-26</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>4.023211465427989e-28</v>
+        <v>4.258984268507275e-26</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>3.996001343055058e-28</v>
+        <v>9.335045136059598e-26</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>3.636789444946214e-28</v>
+        <v>1.00829953367353e-25</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.896647744071685e-28</v>
+        <v>1.043351596151e-25</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.956545824444474e-28</v>
+        <v>1.025382259466835e-25</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>2.292160279359214e-28</v>
+        <v>8.647919022021359e-26</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.919721435563644e-28</v>
+        <v>6.81000221016609e-26</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>3.54032588444448e-28</v>
+        <v>4.60557427346532e-26</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>6.591650249182454e-28</v>
+        <v>3.77150131016266e-26</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>9.860695915278797e-28</v>
+        <v>3.466866318401659e-26</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>2.540039638234063e-27</v>
+        <v>3.382981835346677e-26</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>3.85421921503705e-27</v>
+        <v>3.122884881059891e-26</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>3.750730375254129e-27</v>
+        <v>2.83151738459076e-26</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>2.73344512074112e-27</v>
+        <v>2.661416621487574e-26</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.279491330902593e-27</v>
+        <v>2.990947365073449e-26</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>9.548097257647506e-28</v>
+        <v>3.797142825688592e-26</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>1.181982081164338e-27</v>
+        <v>5.213061115016752e-26</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>5.081278590417028e-28</v>
+        <v>6.163565280963223e-26</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>3.549974831070991e-28</v>
+        <v>7.379756702755338e-26</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>1.928337199989157e-28</v>
+        <v>8.595195091238224e-26</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>8.898611735218782e-29</v>
+        <v>8.896227639930847e-26</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>6.66097704740887e-29</v>
+        <v>1.028610876812171e-25</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>6.484125027913235e-29</v>
+        <v>1.13624407907591e-25</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>7.286421801595082e-29</v>
+        <v>1.105599753990655e-25</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>8.710364344542307e-29</v>
+        <v>1.156582420721491e-25</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>7.990634754981944e-29</v>
+        <v>1.118444938962108e-25</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>1.589509766529314e-28</v>
+        <v>1.076498205079933e-25</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>2.26823972647463e-28</v>
+        <v>1.023339190692903e-25</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>4.883389135491066e-28</v>
+        <v>1.00199017848331e-25</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.082460535005367e-27</v>
+        <v>9.234775333958437e-26</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>9.419698880745503e-28</v>
+        <v>8.819035804345687e-26</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>4.530896925325444e-28</v>
+        <v>6.505789218609075e-26</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>2.08633670618163e-28</v>
+        <v>5.694700959745807e-26</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>9.220809910455244e-29</v>
+        <v>4.555762074989444e-26</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>8.44206528905428e-29</v>
+        <v>3.181119446387058e-26</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>5.222995084922254e-29</v>
+        <v>2.743176421655949e-26</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>4.106518248844069e-29</v>
+        <v>2.237847350411985e-26</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>2.471652233338824e-29</v>
+        <v>2.065258766597396e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>2.645610478852362e-29</v>
+        <v>2.067788339944779e-26</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>5.003058170310965e-29</v>
+        <v>2.003566248159586e-26</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>2.617637804628145e-29</v>
+        <v>1.843382012930732e-26</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03161160937704e-29</v>
+        <v>1.797048188667958e-26</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>7.870203468074263e-30</v>
+        <v>1.773186045941098e-26</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>5.588067101120685e-30</v>
+        <v>1.925207395587456e-26</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>5.564858180017361e-30</v>
+        <v>2.029489203076822e-26</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>7.807603960397987e-30</v>
+        <v>2.070361610562304e-26</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>1.695040200085132e-29</v>
+        <v>2.015656482993635e-26</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>1.818403152711454e-29</v>
+        <v>1.917666590348728e-26</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>1.84329282638928e-29</v>
+        <v>1.723046079249586e-26</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>1.794987582818763e-29</v>
+        <v>1.402660313256473e-26</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>1.499529866977292e-29</v>
+        <v>7.879118831562885e-27</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>1.159393275875286e-29</v>
+        <v>6.294478244680606e-27</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>7.700509229979084e-30</v>
+        <v>4.787245560641209e-27</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>6.189474814357723e-30</v>
+        <v>3.329832356947547e-27</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>5.667231096342778e-30</v>
+        <v>2.942166592110359e-27</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>5.498484377523889e-30</v>
+        <v>2.780219074003435e-27</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>5.031105894654035e-30</v>
+        <v>2.746265611241292e-27</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>4.479760772326229e-30</v>
+        <v>2.554719933757905e-27</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>4.057142698279777e-30</v>
+        <v>2.510655456891364e-27</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>4.424815146855744e-30</v>
+        <v>2.510987758256338e-27</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>5.378291593358015e-30</v>
+        <v>2.494383951517215e-27</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>7.248634172488126e-30</v>
+        <v>2.400339125929278e-27</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>8.410293645806466e-30</v>
+        <v>2.306970733500619e-27</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>9.888930171813299e-30</v>
+        <v>2.259793517057228e-27</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.138691383359758e-29</v>
+        <v>1.987431951679943e-27</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.169825109371657e-29</v>
+        <v>1.994380239167433e-27</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>1.335908644058611e-29</v>
+        <v>1.991153504380035e-27</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>1.449190196731954e-29</v>
+        <v>1.919909082168369e-27</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>1.400982986632282e-29</v>
+        <v>1.60621799081482e-27</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>1.448152517627452e-29</v>
+        <v>1.322760485806816e-27</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>1.387267531965559e-29</v>
+        <v>1.194695949400341e-27</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.32816677190004e-29</v>
+        <v>1.147451259453728e-27</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>1.255337209931116e-29</v>
+        <v>1.363803956988677e-27</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.224239865910192e-29</v>
+        <v>2.239605210778169e-27</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>1.12258483527193e-29</v>
+        <v>2.671690823327871e-27</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.068435902721392e-29</v>
+        <v>2.748068146225365e-27</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>7.736691181752956e-30</v>
+        <v>2.712436329925475e-27</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>6.705542089075101e-30</v>
+        <v>2.703425450604801e-27</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>5.319126400279476e-30</v>
+        <v>2.694110831510583e-27</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.646491845212757e-30</v>
+        <v>2.440446760744801e-27</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>3.113613584991279e-30</v>
+        <v>2.183760461262262e-27</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>2.517430783996325e-30</v>
+        <v>1.222143615549851e-27</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>2.31088974586641e-30</v>
+        <v>6.430023156830589e-28</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>2.313208273001797e-30</v>
+        <v>4.709209524068555e-28</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>2.233278001327079e-30</v>
+        <v>4.386553205833709e-28</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>2.035946809784868e-30</v>
+        <v>5.561223017239688e-28</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.973714684101502e-30</v>
+        <v>5.977245983909487e-28</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.939372045670913e-30</v>
+        <v>8.414983719473609e-28</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>2.095261320262397e-30</v>
+        <v>1.008338567448611e-27</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>2.196083830659269e-30</v>
+        <v>9.941277177700302e-28</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>2.228733387064604e-30</v>
+        <v>9.074976839027548e-28</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>2.156799661758162e-30</v>
+        <v>7.769003734794268e-28</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>2.041343699448619e-30</v>
+        <v>7.68860842649972e-28</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>1.816735753232623e-30</v>
+        <v>6.543844914800353e-28</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>1.465708039691256e-30</v>
+        <v>5.274475955680847e-28</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>8.082255015087751e-31</v>
+        <v>4.567705345580673e-28</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>6.397150922622546e-31</v>
+        <v>4.361034837149025e-28</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>4.824506495164352e-31</v>
+        <v>4.107435114741385e-28</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>3.296201575302278e-31</v>
+        <v>3.976647154997026e-28</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>2.881469294462219e-31</v>
+        <v>3.627147959898158e-28</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>2.70419969597295e-31</v>
+        <v>3.829219925432281e-28</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>2.656243219227222e-31</v>
+        <v>4.204704777885999e-28</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>2.461290562155832e-31</v>
+        <v>4.542964753294816e-28</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>2.413936402441479e-31</v>
+        <v>4.868227802702829e-28</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>2.412297954297406e-31</v>
+        <v>5.360961106907683e-28</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>2.395109823248806e-31</v>
+        <v>5.731496719558944e-28</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>2.29560409133382e-31</v>
+        <v>5.463493432720301e-28</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>2.198269230133819e-31</v>
+        <v>5.254518613889512e-28</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>2.145230269402917e-31</v>
+        <v>4.466763673474969e-28</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>1.880147475554179e-31</v>
+        <v>4.379252378827048e-28</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>1.882342287580161e-31</v>
+        <v>3.724890552316495e-28</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>1.876838090510267e-31</v>
+        <v>3.522057865515367e-28</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>1.799402204789295e-31</v>
+        <v>3.420730935491033e-28</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>1.491695187053297e-31</v>
+        <v>4.201185164499853e-28</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.217241707674689e-31</v>
+        <v>3.61354786529916e-28</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.089805985351076e-31</v>
+        <v>3.65586092372937e-28</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.04397212868735e-31</v>
+        <v>3.248569622149224e-28</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.231990888757132e-31</v>
+        <v>2.982637400108803e-28</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>2.004319482737067e-31</v>
+        <v>2.77424002314301e-28</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>2.378830254053828e-31</v>
+        <v>2.550195331600653e-28</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>2.432933684730987e-31</v>
+        <v>2.309024174113213e-28</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>2.38704010785552e-31</v>
+        <v>2.300058989690445e-28</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>2.370265196335566e-31</v>
+        <v>1.120351303339246e-28</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>2.357877404707218e-31</v>
+        <v>4.384042072950077e-29</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>2.11213772940313e-31</v>
+        <v>2.637611190456844e-29</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.881880422447116e-31</v>
+        <v>3.705981078521646e-29</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>1.032658426768331e-31</v>
+        <v>2.292185031416285e-29</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>5.238405287271979e-32</v>
+        <v>1.822569896190949e-29</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>3.69629275212242e-32</v>
+        <v>1.496681454093882e-29</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>3.318376727645166e-32</v>
+        <v>1.493186214790258e-29</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>4.134176318675053e-32</v>
+        <v>1.87431030567674e-29</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>4.414372256065105e-32</v>
+        <v>3.130972020913886e-29</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>6.134221132338992e-32</v>
+        <v>3.135280018517485e-29</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>7.218661033765018e-32</v>
+        <v>2.444048231305594e-29</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>7.050312352176027e-32</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>6.377577340360579e-32</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.409878856655683e-32</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.353303980304275e-32</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.516180733482062e-32</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.605798925709321e-32</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>3.092773284176539e-32</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.937739808428389e-32</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.742879229946818e-32</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.645522053495029e-32</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.401206244456279e-32</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.507782139269981e-32</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.730179927660486e-32</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.92468705280188e-32</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>3.103663864158844e-32</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.387244400145633e-32</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.58680486114625e-32</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.418897674266127e-32</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.260595694129645e-32</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.744964673836615e-32</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.690243595420593e-32</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.271401604133185e-32</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.142495106502318e-32</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>2.07962969462226e-32</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.537816003226359e-32</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.176611280639038e-32</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.184707386372817e-32</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.934417623452709e-32</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.769330102675671e-32</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.639739498533643e-32</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.501241333221798e-32</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.35429086368939e-32</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.345033653070471e-32</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.489694671475201e-33</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.514829269692517e-33</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.505144851243514e-33</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.113169729855223e-33</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.305763239504136e-33</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.034230335759312e-33</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>8.432169445682659e-34</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>8.362677217639653e-34</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.029913049168867e-33</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.686916890110024e-33</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.657519246538641e-33</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.26602751528069e-33</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.07650583023073e-33</v>
+        <v>2.092984948995064e-29</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>5.134638212427312e-25</v>
+        <v>3.321798393339629e-09</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>5.496792380830478e-25</v>
+        <v>5.420638936835196e-09</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>6.680119861571635e-25</v>
+        <v>7.432717347064791e-09</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>8.670754488227693e-25</v>
+        <v>7.100188601099947e-09</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>1.070825471249215e-24</v>
+        <v>8.529786694815362e-09</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>2.030324829402128e-24</v>
+        <v>8.05622659547701e-09</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>3.093192052483522e-24</v>
+        <v>7.358756690134061e-09</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>8.042366646999828e-24</v>
+        <v>7.668951835354835e-09</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>1.231935317710074e-23</v>
+        <v>5.390561170932915e-09</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.220807645949079e-23</v>
+        <v>6.442267311936313e-09</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>9.029510219683979e-24</v>
+        <v>6.790205750745856e-09</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>4.290597020327434e-24</v>
+        <v>4.116224859107148e-09</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>3.214007363028449e-24</v>
+        <v>4.039502100209541e-10</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>3.992513888237928e-24</v>
+        <v>2.473420348958684e-10</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.723178533617244e-24</v>
+        <v>2.63509811796014e-10</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.210042899134154e-24</v>
+        <v>2.179553507882071e-10</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>6.633557098689966e-25</v>
+        <v>2.230292924953665e-10</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>3.11950705950855e-25</v>
+        <v>2.794639994206727e-10</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2.343577035700134e-25</v>
+        <v>2.282606619507151e-10</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>2.293585876546438e-25</v>
+        <v>2.688949577550169e-10</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2.601201168842002e-25</v>
+        <v>4.792757071644821e-10</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>3.139323744811052e-25</v>
+        <v>5.526763780297184e-10</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>2.902153717032766e-25</v>
+        <v>7.547079364965901e-10</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>5.833468665908809e-25</v>
+        <v>7.819264752502419e-10</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>8.404285177231662e-25</v>
+        <v>7.194387212125184e-10</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>1.841572568477993e-24</v>
+        <v>7.739313757662834e-10</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>4.160944384212562e-24</v>
+        <v>7.394944898909163e-10</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>3.687948510377051e-24</v>
+        <v>7.27073836120605e-10</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>1.806591493163383e-24</v>
+        <v>7.043473054509678e-10</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>8.47438610793927e-25</v>
+        <v>6.992090097743999e-10</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>3.816393080323693e-25</v>
+        <v>6.402907366955651e-10</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>3.557267644569113e-25</v>
+        <v>5.897739476088381e-10</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>2.242785167491628e-25</v>
+        <v>6.520505331343438e-10</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.795219727900163e-25</v>
+        <v>5.669564078297291e-10</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.090986606826313e-25</v>
+        <v>5.311821261465674e-10</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.178131594705929e-25</v>
+        <v>3.489879811661398e-10</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>2.26940225989955e-25</v>
+        <v>3.391338272132087e-10</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.232337524215802e-25</v>
+        <v>3.130779489635599e-10</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>4.947301673124802e-26</v>
+        <v>3.308569085774314e-10</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.842996472263276e-26</v>
+        <v>4.876196858661288e-10</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>2.831612166760086e-26</v>
+        <v>4.901853894688029e-10</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>2.92567648816763e-26</v>
+        <v>4.405249599205119e-10</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>4.258984268507275e-26</v>
+        <v>3.759654360771354e-10</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>9.335045136059598e-26</v>
+        <v>3.713271789401539e-10</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.00829953367353e-25</v>
+        <v>3.401187827725033e-10</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.043351596151e-25</v>
+        <v>1.758667701299297e-10</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>1.025382259466835e-25</v>
+        <v>1.828939973374776e-10</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>8.647919022021359e-26</v>
+        <v>2.132304543791979e-10</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>6.81000221016609e-26</v>
+        <v>2.733624129482965e-10</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>4.60557427346532e-26</v>
+        <v>3.309019387753856e-10</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>3.77150131016266e-26</v>
+        <v>6.135868892187027e-10</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>3.466866318401659e-26</v>
+        <v>9.17909429448769e-10</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>3.382981835346677e-26</v>
+        <v>2.371901250300434e-09</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>3.122884881059891e-26</v>
+        <v>3.595666053613927e-09</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>2.83151738459076e-26</v>
+        <v>3.494097605608342e-09</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>2.661416621487574e-26</v>
+        <v>2.547677757622111e-09</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>2.990947365073449e-26</v>
+        <v>1.195181175479675e-09</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>3.797142825688592e-26</v>
+        <v>8.926753673639514e-10</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>5.213061115016752e-26</v>
+        <v>1.102850169208936e-09</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>6.163565280963223e-26</v>
+        <v>4.735317492318308e-10</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>7.379756702755338e-26</v>
+        <v>3.299897492974123e-10</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>8.595195091238224e-26</v>
+        <v>1.788834640670794e-10</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>8.896227639930847e-26</v>
+        <v>8.302605055203946e-11</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>1.028610876812171e-25</v>
+        <v>6.22468266315344e-11</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>1.13624407907591e-25</v>
+        <v>6.105614187402827e-11</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>1.105599753990655e-25</v>
+        <v>6.785650487255256e-11</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>1.156582420721491e-25</v>
+        <v>8.310898037888104e-11</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.118444938962108e-25</v>
+        <v>7.648122921572951e-11</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.076498205079933e-25</v>
+        <v>1.451083819012554e-10</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.023339190692903e-25</v>
+        <v>2.144175448472367e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.00199017848331e-25</v>
+        <v>4.557703096610231e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>9.234775333958437e-26</v>
+        <v>1.009947899726839e-09</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>8.819035804345687e-26</v>
+        <v>8.793665657885746e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>6.505789218609075e-26</v>
+        <v>4.225259602979805e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>5.694700959745807e-26</v>
+        <v>1.95598957918212e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>4.555762074989444e-26</v>
+        <v>8.600194242437533e-11</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>3.181119446387058e-26</v>
+        <v>7.903749964671412e-11</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>2.743176421655949e-26</v>
+        <v>4.970644681358478e-11</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>2.237847350411985e-26</v>
+        <v>3.828838116985325e-11</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>2.065258766597396e-26</v>
+        <v>2.300158121909629e-11</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>2.067788339944779e-26</v>
+        <v>2.464765191512056e-11</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>2.003566248159586e-26</v>
+        <v>4.657723853315951e-11</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.843382012930732e-26</v>
+        <v>2.436073938831035e-11</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.797048188667958e-26</v>
+        <v>9.586448581129683e-12</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.773186045941098e-26</v>
+        <v>7.329743142375064e-12</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.925207395587456e-26</v>
+        <v>5.214149997652856e-12</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>2.029489203076822e-26</v>
+        <v>5.148819837142719e-12</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>2.070361610562304e-26</v>
+        <v>7.280253817768365e-12</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>2.015656482993635e-26</v>
+        <v>1.577964040164308e-11</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.917666590348728e-26</v>
+        <v>1.691125023010505e-11</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>1.723046079249586e-26</v>
+        <v>1.721696110362109e-11</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>1.402660313256473e-26</v>
+        <v>1.669801629837643e-11</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>7.879118831562885e-27</v>
+        <v>1.391972365754899e-11</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>6.294478244680606e-27</v>
+        <v>1.08182243302911e-11</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>4.787245560641209e-27</v>
+        <v>7.171989082816671e-12</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>3.329832356947547e-27</v>
+        <v>5.779710869764298e-12</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>2.942166592110359e-27</v>
+        <v>5.295316140662055e-12</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>2.780219074003435e-27</v>
+        <v>5.087444521190256e-12</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>2.746265611241292e-27</v>
+        <v>4.700472894341415e-12</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>2.554719933757905e-27</v>
+        <v>4.170714122838871e-12</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>2.510655456891364e-27</v>
+        <v>3.780564779047063e-12</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>2.510987758256338e-27</v>
+        <v>4.129652815703496e-12</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>2.494383951517215e-27</v>
+        <v>5.012336069977746e-12</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>2.400339125929278e-27</v>
+        <v>6.750631775250514e-12</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>2.306970733500619e-27</v>
+        <v>7.840189533328732e-12</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>2.259793517057228e-27</v>
+        <v>9.207098712237646e-12</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.987431951679943e-27</v>
+        <v>1.061267068814857e-11</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.994380239167433e-27</v>
+        <v>1.089905919327155e-11</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.991153504380035e-27</v>
+        <v>1.24625629154471e-11</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.919909082168369e-27</v>
+        <v>1.350599067239427e-11</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.60621799081482e-27</v>
+        <v>1.305507847086243e-11</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>1.322760485806816e-27</v>
+        <v>1.348533380696229e-11</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>1.194695949400341e-27</v>
+        <v>1.292249341615984e-11</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.147451259453728e-27</v>
+        <v>1.237525502308966e-11</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>1.363803956988677e-27</v>
+        <v>1.169967006653779e-11</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>2.239605210778169e-27</v>
+        <v>1.139087834238223e-11</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>2.671690823327871e-27</v>
+        <v>1.045655583203088e-11</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.748068146225365e-27</v>
+        <v>9.955524805914326e-12</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>2.712436329925475e-27</v>
+        <v>7.207509161420872e-12</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>2.703425450604801e-27</v>
+        <v>6.244092249578385e-12</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>2.694110831510583e-27</v>
+        <v>4.961270184552323e-12</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>2.440446760744801e-27</v>
+        <v>3.396848972505882e-12</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.183760461262262e-27</v>
+        <v>2.899980655968217e-12</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.222143615549851e-27</v>
+        <v>2.348468363351096e-12</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>6.430023156830589e-28</v>
+        <v>2.153491349038052e-12</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.709209524068555e-28</v>
+        <v>2.157076861089278e-12</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>4.386553205833709e-28</v>
+        <v>2.08564318019622e-12</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>5.561223017239688e-28</v>
+        <v>1.897555511697473e-12</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>5.977245983909487e-28</v>
+        <v>1.842320720380838e-12</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>8.414983719473609e-28</v>
+        <v>1.80555137216995e-12</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>1.008338567448611e-27</v>
+        <v>1.952609634400302e-12</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>9.941277177700302e-28</v>
+        <v>2.044781930856525e-12</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>9.074976839027548e-28</v>
+        <v>2.075145227544985e-12</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>7.769003734794268e-28</v>
+        <v>2.011958787298901e-12</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>7.68860842649972e-28</v>
+        <v>1.900169267808148e-12</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>6.543844914800353e-28</v>
+        <v>1.691807849141259e-12</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>5.274475955680847e-28</v>
+        <v>1.366458593319367e-12</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>4.567705345580673e-28</v>
+        <v>7.526289901964072e-13</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>4.361034837149025e-28</v>
+        <v>5.942564840840457e-13</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>4.107435114741385e-28</v>
+        <v>4.501601235547977e-13</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>3.976647154997026e-28</v>
+        <v>3.07639711149299e-13</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>3.627147959898158e-28</v>
+        <v>2.679898641567617e-13</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>3.829219925432281e-28</v>
+        <v>2.506091837038332e-13</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>4.204704777885999e-28</v>
+        <v>2.472466217412863e-13</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>4.542964753294816e-28</v>
+        <v>2.29348555935163e-13</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>4.868227802702829e-28</v>
+        <v>2.260721879528112e-13</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>5.360961106907683e-28</v>
+        <v>2.251496640668092e-13</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>5.731496719558944e-28</v>
+        <v>2.233715267916358e-13</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>5.463493432720301e-28</v>
+        <v>2.13731521052658e-13</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>5.254518613889512e-28</v>
+        <v>2.038881941923308e-13</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>4.466763673474969e-28</v>
+        <v>1.990327226105662e-13</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>4.379252378827048e-28</v>
+        <v>1.759761264574236e-13</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>3.724890552316495e-28</v>
+        <v>1.752252110678633e-13</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>3.522057865515367e-28</v>
+        <v>1.753309395723756e-13</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>3.420730935491033e-28</v>
+        <v>1.676361016427199e-13</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>4.201185164499853e-28</v>
+        <v>1.391031241368064e-13</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>3.61354786529916e-28</v>
+        <v>1.141455162859311e-13</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>3.65586092372937e-28</v>
+        <v>1.01408351013822e-13</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>3.248569622149224e-28</v>
+        <v>9.715108197679631e-14</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>2.982637400108803e-28</v>
+        <v>1.145171028993017e-13</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>2.77424002314301e-28</v>
+        <v>1.879034417601432e-13</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>2.550195331600653e-28</v>
+        <v>2.211246914342409e-13</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>2.309024174113213e-28</v>
+        <v>2.265638961785092e-13</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>2.300058989690445e-28</v>
+        <v>2.218480336383825e-13</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>1.120351303339246e-28</v>
+        <v>2.204963747781614e-13</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>4.384042072950077e-29</v>
+        <v>2.196601880601468e-13</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>2.637611190456844e-29</v>
+        <v>1.965208983173515e-13</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>3.705981078521646e-29</v>
+        <v>1.755937917601267e-13</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>2.292185031416285e-29</v>
+        <v>9.619694554033862e-14</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>1.822569896190949e-29</v>
+        <v>4.876033235167903e-14</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>1.496681454093882e-29</v>
+        <v>3.446901875777668e-14</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>1.493186214790258e-29</v>
+        <v>3.095150010185969e-14</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>1.87431030567674e-29</v>
+        <v>3.861354850231514e-14</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>3.130972020913886e-29</v>
+        <v>4.101886568008524e-14</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>3.135280018517485e-29</v>
+        <v>5.696768043037204e-14</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>2.444048231305594e-29</v>
+        <v>6.762533726158398e-14</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>2.092984948995064e-29</v>
+        <v>6.561762817015025e-14</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>5.938883018029215e-14</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>5.028229250697828e-14</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.987538061653455e-14</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.207841755578846e-14</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.356086481054871e-14</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.889533139927269e-14</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.758175834709226e-14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.563272897617798e-14</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.470189635055439e-14</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.247013206939834e-14</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.342166935386411e-14</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.550913089556553e-14</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.7267722199325e-14</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.886028118556637e-14</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.152674041378612e-14</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.34395585436399e-14</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.186311264090761e-14</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>3.030454173025423e-14</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.558630897192946e-14</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.506943706416164e-14</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.119913217709427e-14</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.998963813306133e-14</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.940702649036201e-14</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.364981319612771e-14</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.026793008231503e-14</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.029952674204615e-14</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.803009717856372e-14</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.649371709974935e-14</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.527609155370725e-14</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.395548645245175e-14</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.261248767068065e-14</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.255796864746949e-14</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>6.064468948252771e-15</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.340408999901638e-15</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.400601694067016e-15</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.968822231812789e-15</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.216141864036086e-15</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>9.615401060323478e-16</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>7.785510140464018e-16</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>7.628448662287517e-16</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>9.616061086053351e-16</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.568789428861793e-15</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.541965655447638e-15</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.178391436245507e-15</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.000778188651159e-15</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.321798393339629e-09</v>
+        <v>5.205740544965948e-25</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>5.420638936835196e-09</v>
+        <v>5.397775419349796e-25</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>7.432717347064791e-09</v>
+        <v>6.51282963209105e-25</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>7.100188601099947e-09</v>
+        <v>8.575936921819504e-25</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>8.529786694815362e-09</v>
+        <v>1.056791255742486e-24</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>8.05622659547701e-09</v>
+        <v>1.950011807844923e-24</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>7.358756690134061e-09</v>
+        <v>2.9753266434217e-24</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.668951835354835e-09</v>
+        <v>7.601208443289807e-24</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5.390561170932915e-09</v>
+        <v>1.160536826475199e-23</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6.442267311936313e-09</v>
+        <v>1.155724854216599e-23</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>6.790205750745856e-09</v>
+        <v>8.519696767929694e-24</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.116224859107148e-09</v>
+        <v>4.043432425573455e-24</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>4.039502100209541e-10</v>
+        <v>3.054160700516376e-24</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.473420348958684e-10</v>
+        <v>3.786623537172564e-24</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.63509811796014e-10</v>
+        <v>1.657027305060583e-24</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>2.179553507882071e-10</v>
+        <v>1.141932578043401e-24</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>2.230292924953665e-10</v>
+        <v>6.34013060973588e-25</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.794639994206727e-10</v>
+        <v>3.10235899836331e-25</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.282606619507151e-10</v>
+        <v>2.324481743669621e-25</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.688949577550169e-10</v>
+        <v>2.249186392773535e-25</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>4.792757071644821e-10</v>
+        <v>2.627004847286931e-25</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>5.526763780297184e-10</v>
+        <v>3.129010139751697e-25</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>7.547079364965901e-10</v>
+        <v>2.887647172588751e-25</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>7.819264752502419e-10</v>
+        <v>5.616294673191888e-25</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>7.194387212125184e-10</v>
+        <v>8.30056575949567e-25</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>7.739313757662834e-10</v>
+        <v>1.74519459330937e-24</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>7.394944898909163e-10</v>
+        <v>3.974188907134214e-24</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>7.27073836120605e-10</v>
+        <v>3.540796080461202e-24</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>7.043473054509678e-10</v>
+        <v>1.702023640886111e-24</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>6.992090097743999e-10</v>
+        <v>8.122437043887463e-25</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>6.402907366955651e-10</v>
+        <v>3.680419458947798e-25</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>5.897739476088381e-10</v>
+        <v>3.391463209803272e-25</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>6.520505331343438e-10</v>
+        <v>2.095065526141188e-25</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>5.669564078297291e-10</v>
+        <v>1.764345179270611e-25</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>5.311821261465674e-10</v>
+        <v>1.005032692049684e-25</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>3.489879811661398e-10</v>
+        <v>1.151915063075073e-25</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>3.391338272132087e-10</v>
+        <v>2.208042064595665e-25</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>3.130779489635599e-10</v>
+        <v>1.194594342051106e-25</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3.308569085774314e-10</v>
+        <v>4.824010763057824e-26</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.876196858661288e-10</v>
+        <v>3.903985939494435e-26</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>4.901853894688029e-10</v>
+        <v>2.830570618507347e-26</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>4.405249599205119e-10</v>
+        <v>2.79963872793873e-26</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>3.759654360771354e-10</v>
+        <v>4.200526070872767e-26</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>3.713271789401539e-10</v>
+        <v>8.986774603947476e-26</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>3.401187827725033e-10</v>
+        <v>9.720133697294315e-26</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.758667701299297e-10</v>
+        <v>1.009793736409126e-25</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.828939973374776e-10</v>
+        <v>9.816419442983307e-26</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.132304543791979e-10</v>
+        <v>8.201937744280638e-26</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.733624129482965e-10</v>
+        <v>6.593176395197825e-26</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>3.309019387753856e-10</v>
+        <v>4.486968082780464e-26</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>6.135868892187027e-10</v>
+        <v>3.728835742103649e-26</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>9.17909429448769e-10</v>
+        <v>3.391246759117887e-26</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>2.371901250300434e-09</v>
+        <v>3.275412517041384e-26</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.595666053613927e-09</v>
+        <v>3.043491744285733e-26</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>3.494097605608342e-09</v>
+        <v>2.743503124176948e-26</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>2.547677757622111e-09</v>
+        <v>2.579407231118937e-26</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.195181175479675e-09</v>
+        <v>2.905968283701337e-26</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>8.926753673639514e-10</v>
+        <v>3.659939659553031e-26</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.102850169208936e-09</v>
+        <v>4.942787345487313e-26</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>4.735317492318308e-10</v>
+        <v>5.869530860938568e-26</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>3.299897492974123e-10</v>
+        <v>6.993759793070167e-26</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.788834640670794e-10</v>
+        <v>8.136675621527075e-26</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>8.302605055203946e-11</v>
+        <v>8.410600830420155e-26</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>6.22468266315344e-11</v>
+        <v>9.747720914692929e-26</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>6.105614187402827e-11</v>
+        <v>1.07304493228898e-25</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>6.785650487255256e-11</v>
+        <v>1.045120298021993e-25</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>8.310898037888104e-11</v>
+        <v>1.089926467174342e-25</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>7.648122921572951e-11</v>
+        <v>1.055185520208554e-25</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.451083819012554e-10</v>
+        <v>1.017478176050926e-25</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>2.144175448472367e-10</v>
+        <v>9.663256418521252e-26</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>4.557703096610231e-10</v>
+        <v>9.439353803013709e-26</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.009947899726839e-09</v>
+        <v>8.700321165241039e-26</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>8.793665657885746e-10</v>
+        <v>8.330476939235274e-26</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>4.225259602979805e-10</v>
+        <v>6.148526735151687e-26</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1.95598957918212e-10</v>
+        <v>5.385067732976006e-26</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>8.600194242437533e-11</v>
+        <v>4.311166912366479e-26</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>7.903749964671412e-11</v>
+        <v>3.008587856634603e-26</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>4.970644681358478e-11</v>
+        <v>2.59849159790407e-26</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>3.828838116985325e-11</v>
+        <v>2.127680449312963e-26</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>2.300158121909629e-11</v>
+        <v>1.960903056844224e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>2.464765191512056e-11</v>
+        <v>1.966410721701917e-26</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>4.657723853315951e-11</v>
+        <v>1.90916476908184e-26</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>2.436073938831035e-11</v>
+        <v>1.7500650479541e-26</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>9.586448581129683e-12</v>
+        <v>1.711072559283015e-26</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>7.329743142375064e-12</v>
+        <v>1.689524947655115e-26</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>5.214149997652856e-12</v>
+        <v>1.820318701392449e-26</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>5.148819837142719e-12</v>
+        <v>1.924845305135109e-26</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>7.280253817768365e-12</v>
+        <v>1.961962066382245e-26</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.577964040164308e-11</v>
+        <v>1.917088390864055e-26</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.691125023010505e-11</v>
+        <v>1.813662406378096e-26</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.721696110362109e-11</v>
+        <v>1.629654786199095e-26</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.669801629837643e-11</v>
+        <v>1.333094252158933e-26</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>1.391972365754899e-11</v>
+        <v>7.502192375723367e-27</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.08182243302911e-11</v>
+        <v>5.987729475850878e-27</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>7.171989082816671e-12</v>
+        <v>4.609951955507887e-27</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>5.779710869764298e-12</v>
+        <v>3.215271330190621e-27</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>5.295316140662055e-12</v>
+        <v>2.850263128994339e-27</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>5.087444521190256e-12</v>
+        <v>2.689319399721401e-27</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>4.700472894341415e-12</v>
+        <v>2.662697925599937e-27</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>4.170714122838871e-12</v>
+        <v>2.473860233969061e-27</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>3.780564779047063e-12</v>
+        <v>2.44208388349786e-27</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>4.129652815703496e-12</v>
+        <v>2.450485923343481e-27</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5.012336069977746e-12</v>
+        <v>2.412267717085561e-27</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>6.750631775250514e-12</v>
+        <v>2.309426385868886e-27</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>7.840189533328732e-12</v>
+        <v>2.202440062392124e-27</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>9.207098712237646e-12</v>
+        <v>2.127594601785504e-27</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.061267068814857e-11</v>
+        <v>1.956255419746386e-27</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.089905919327155e-11</v>
+        <v>1.944470021928718e-27</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.24625629154471e-11</v>
+        <v>1.962759950825275e-27</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.350599067239427e-11</v>
+        <v>1.879417646967905e-27</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.305507847086243e-11</v>
+        <v>1.571856315097684e-27</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.348533380696229e-11</v>
+        <v>1.311950594504581e-27</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.292249341615984e-11</v>
+        <v>1.175346361460661e-27</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.237525502308966e-11</v>
+        <v>1.12473322026191e-27</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.169967006653779e-11</v>
+        <v>1.348963479593684e-27</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.139087834238223e-11</v>
+        <v>2.188042870228515e-27</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.045655583203088e-11</v>
+        <v>2.565465596095206e-27</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>9.955524805914326e-12</v>
+        <v>2.650132246003082e-27</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>7.207509161420872e-12</v>
+        <v>2.598442294345914e-27</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>6.244092249578385e-12</v>
+        <v>2.61556597688302e-27</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>4.961270184552323e-12</v>
+        <v>2.597525974905292e-27</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.396848972505882e-12</v>
+        <v>2.343800380618243e-27</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.899980655968217e-12</v>
+        <v>2.110195310267712e-27</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>2.348468363351096e-12</v>
+        <v>1.184901131122351e-27</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>2.153491349038052e-12</v>
+        <v>6.269879614536731e-28</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2.157076861089278e-12</v>
+        <v>4.654864157776713e-28</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>2.08564318019622e-12</v>
+        <v>4.267796364528838e-28</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.897555511697473e-12</v>
+        <v>5.436165655772593e-28</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.842320720380838e-12</v>
+        <v>5.80448433881653e-28</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.80555137216995e-12</v>
+        <v>8.093010776965274e-28</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.952609634400302e-12</v>
+        <v>9.677985294405913e-28</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.044781930856525e-12</v>
+        <v>9.602972664486018e-28</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>2.075145227544985e-12</v>
+        <v>8.706598653559313e-28</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>2.011958787298901e-12</v>
+        <v>7.387055867386865e-28</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.900169267808148e-12</v>
+        <v>6.245023679753534e-28</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>1.691807849141259e-12</v>
+        <v>5.036510936925999e-28</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>1.366458593319367e-12</v>
+        <v>4.418240057926687e-28</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>7.526289901964072e-13</v>
+        <v>4.284273888359587e-28</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>5.942564840840457e-13</v>
+        <v>3.915290203228813e-28</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>4.501601235547977e-13</v>
+        <v>3.823614247763622e-28</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.07639711149299e-13</v>
+        <v>3.589725914088484e-28</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>2.679898641567617e-13</v>
+        <v>3.723616797387684e-28</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>2.506091837038332e-13</v>
+        <v>4.076447851180536e-28</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>2.472466217412863e-13</v>
+        <v>4.370777780354409e-28</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>2.29348555935163e-13</v>
+        <v>4.672360589759408e-28</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>2.260721879528112e-13</v>
+        <v>5.117843398755334e-28</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>2.251496640668092e-13</v>
+        <v>5.345916207277864e-28</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>2.233715267916358e-13</v>
+        <v>4.983205467476216e-28</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>2.13731521052658e-13</v>
+        <v>4.268941178001911e-28</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>2.038881941923308e-13</v>
+        <v>4.188480143722017e-28</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>1.990327226105662e-13</v>
+        <v>3.574154708405144e-28</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>1.759761264574236e-13</v>
+        <v>3.379191847060772e-28</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>1.752252110678633e-13</v>
+        <v>3.287121351049031e-28</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>1.753309395723756e-13</v>
+        <v>4.003377512007116e-28</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>1.676361016427199e-13</v>
+        <v>3.462693477608321e-28</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>1.391031241368064e-13</v>
+        <v>3.489742516215482e-28</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.141455162859311e-13</v>
+        <v>3.114161228671802e-28</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.01408351013822e-13</v>
+        <v>2.86140798429538e-28</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>9.715108197679631e-14</v>
+        <v>2.667642468357015e-28</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.145171028993017e-13</v>
+        <v>2.420589038821157e-28</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.879034417601432e-13</v>
+        <v>2.219415382219298e-28</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.211246914342409e-13</v>
+        <v>2.228719973908124e-28</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.265638961785092e-13</v>
+        <v>1.099392125006086e-28</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>2.218480336383825e-13</v>
+        <v>4.326876900912375e-29</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.204963747781614e-13</v>
+        <v>2.542753023934346e-29</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>2.196601880601468e-13</v>
+        <v>3.647414844789216e-29</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.965208983173515e-13</v>
+        <v>2.259113705129711e-29</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.755937917601267e-13</v>
+        <v>1.774049544952707e-29</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>9.619694554033862e-14</v>
+        <v>1.436754140191126e-29</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>4.876033235167903e-14</v>
+        <v>1.40664738505288e-29</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>3.446901875777668e-14</v>
+        <v>1.86452898410882e-29</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>3.095150010185969e-14</v>
+        <v>3.075771756094536e-29</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>3.861354850231514e-14</v>
+        <v>3.085463658551606e-29</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>4.101886568008524e-14</v>
+        <v>2.396327884861481e-29</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>5.696768043037204e-14</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>6.762533726158398e-14</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>6.561762817015025e-14</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>5.938883018029215e-14</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>5.028229250697828e-14</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>4.987538061653455e-14</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.207841755578846e-14</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.356086481054871e-14</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.889533139927269e-14</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.758175834709226e-14</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.563272897617798e-14</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.470189635055439e-14</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>2.247013206939834e-14</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.342166935386411e-14</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.550913089556553e-14</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.7267722199325e-14</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.886028118556637e-14</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>3.152674041378612e-14</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.34395585436399e-14</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.186311264090761e-14</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>3.030454173025423e-14</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.558630897192946e-14</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.506943706416164e-14</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.119913217709427e-14</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>1.998963813306133e-14</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.940702649036201e-14</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.364981319612771e-14</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.026793008231503e-14</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.029952674204615e-14</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.803009717856372e-14</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.649371709974935e-14</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.527609155370725e-14</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.395548645245175e-14</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.261248767068065e-14</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.255796864746949e-14</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>6.064468948252771e-15</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.340408999901638e-15</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.400601694067016e-15</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>1.968822231812789e-15</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.216141864036086e-15</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>9.615401060323478e-16</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>7.785510140464018e-16</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>7.628448662287517e-16</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>9.616061086053351e-16</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.568789428861793e-15</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.541965655447638e-15</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.178391436245507e-15</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.000778188651159e-15</v>
+        <v>2.05096623162064e-29</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.900000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>5.205740544965948e-25</v>
+        <v>2.724031908435041e-25</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>5.397775419349796e-25</v>
+        <v>3.348366677939997e-25</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>6.51282963209105e-25</v>
+        <v>4.647354229870758e-25</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>8.575936921819504e-25</v>
+        <v>7.084250807233442e-25</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>1.056791255742486e-24</v>
+        <v>9.49309716792688e-25</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>1.950011807844923e-24</v>
+        <v>1.788468721235197e-24</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>2.9753266434217e-24</v>
+        <v>2.887282686191662e-24</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.601208443289807e-24</v>
+        <v>7.421253141971193e-24</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.160536826475199e-23</v>
+        <v>1.13623591456092e-23</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.155724854216599e-23</v>
+        <v>1.147116049874931e-23</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>8.519696767929694e-24</v>
+        <v>8.408326511615387e-24</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.043432425573455e-24</v>
+        <v>4.004232717863724e-24</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>3.054160700516376e-24</v>
+        <v>2.964225886977603e-24</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>3.786623537172564e-24</v>
+        <v>3.738982237837537e-24</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.657027305060583e-24</v>
+        <v>1.58162345854188e-24</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.141932578043401e-24</v>
+        <v>1.091218835163125e-24</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>6.34013060973588e-25</v>
+        <v>5.484645373352091e-25</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>3.10235899836331e-25</v>
+        <v>2.508938666850861e-25</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>2.324481743669621e-25</v>
+        <v>1.867269081113198e-25</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.249186392773535e-25</v>
+        <v>1.708519655563677e-25</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.627004847286931e-25</v>
+        <v>2.232984661561949e-25</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>3.129010139751697e-25</v>
+        <v>2.968303324493943e-25</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>2.887647172588751e-25</v>
+        <v>2.431298234722478e-25</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>5.616294673191888e-25</v>
+        <v>4.871528658615205e-25</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>8.30056575949567e-25</v>
+        <v>7.352265185941279e-25</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>1.74519459330937e-24</v>
+        <v>1.728977968572872e-24</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3.974188907134214e-24</v>
+        <v>3.950448809724288e-24</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.540796080461202e-24</v>
+        <v>3.495549949832033e-24</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.702023640886111e-24</v>
+        <v>1.691698931058172e-24</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>8.122437043887463e-25</v>
+        <v>7.837159352672944e-25</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>3.680419458947798e-25</v>
+        <v>3.522221607210391e-25</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>3.391463209803272e-25</v>
+        <v>3.227227296951812e-25</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>2.095065526141188e-25</v>
+        <v>2.153893587522626e-25</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.764345179270611e-25</v>
+        <v>1.353638173495702e-25</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.005032692049684e-25</v>
+        <v>9.861327185699493e-26</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.151915063075073e-25</v>
+        <v>1.114770610497482e-25</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.208042064595665e-25</v>
+        <v>2.171268386929505e-25</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.194594342051106e-25</v>
+        <v>1.17408875696582e-25</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.824010763057824e-26</v>
+        <v>4.422738825699529e-26</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>3.903985939494435e-26</v>
+        <v>3.422386749814971e-26</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>2.830570618507347e-26</v>
+        <v>2.631361543009754e-26</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.79963872793873e-26</v>
+        <v>2.559411945106929e-26</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>4.200526070872767e-26</v>
+        <v>4.120484913314802e-26</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>8.986774603947476e-26</v>
+        <v>8.860088291424937e-26</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>9.720133697294315e-26</v>
+        <v>9.584388723774421e-26</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.009793736409126e-25</v>
+        <v>1.009679410951125e-25</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>9.816419442983307e-26</v>
+        <v>9.774843502231484e-26</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>8.201937744280638e-26</v>
+        <v>8.091116989880874e-26</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>6.593176395197825e-26</v>
+        <v>6.488610570008422e-26</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>4.486968082780464e-26</v>
+        <v>4.510942606814391e-26</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>3.728835742103649e-26</v>
+        <v>3.694290855534652e-26</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>3.391246759117887e-26</v>
+        <v>3.428885471949532e-26</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>3.275412517041384e-26</v>
+        <v>3.222715797948203e-26</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.043491744285733e-26</v>
+        <v>2.918520288169945e-26</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.743503124176948e-26</v>
+        <v>2.640369102390598e-26</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>2.579407231118937e-26</v>
+        <v>2.541999601687168e-26</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>2.905968283701337e-26</v>
+        <v>2.865168297242408e-26</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>3.659939659553031e-26</v>
+        <v>3.661038554033114e-26</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>4.942787345487313e-26</v>
+        <v>4.968531781436208e-26</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>5.869530860938568e-26</v>
+        <v>5.893843616640403e-26</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>6.993759793070167e-26</v>
+        <v>7.011719184767566e-26</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>8.136675621527075e-26</v>
+        <v>8.174284796351053e-26</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>8.410600830420155e-26</v>
+        <v>8.424878070491405e-26</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>9.747720914692929e-26</v>
+        <v>9.757194907621736e-26</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.07304493228898e-25</v>
+        <v>1.078731945687684e-25</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.045120298021993e-25</v>
+        <v>1.048357236824667e-25</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.089926467174342e-25</v>
+        <v>1.102110212686091e-25</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.055185520208554e-25</v>
+        <v>1.057811680311493e-25</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.017478176050926e-25</v>
+        <v>1.02443198354662e-25</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>9.663256418521252e-26</v>
+        <v>9.707866794318278e-26</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>9.439353803013709e-26</v>
+        <v>9.456411399853811e-26</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>8.700321165241039e-26</v>
+        <v>8.786967945259274e-26</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>8.330476939235274e-26</v>
+        <v>8.362312866550507e-26</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>6.148526735151687e-26</v>
+        <v>6.200904830824318e-26</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.385067732976006e-26</v>
+        <v>5.3868149721268e-26</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>4.311166912366479e-26</v>
+        <v>4.325233692697356e-26</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>3.008587856634603e-26</v>
+        <v>3.027221012030197e-26</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.59849159790407e-26</v>
+        <v>2.611604888369079e-26</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>2.127680449312963e-26</v>
+        <v>2.132465573426046e-26</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.960903056844224e-26</v>
+        <v>1.969499725362635e-26</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.966410721701917e-26</v>
+        <v>1.971382360388423e-26</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.90916476908184e-26</v>
+        <v>1.915366368086076e-26</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.7500650479541e-26</v>
+        <v>1.753936762539236e-26</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.711072559283015e-26</v>
+        <v>1.713409606760285e-26</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.689524947655115e-26</v>
+        <v>1.690755889540679e-26</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.820318701392449e-26</v>
+        <v>1.827471953028793e-26</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.924845305135109e-26</v>
+        <v>1.9250354333099e-26</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>1.961962066382245e-26</v>
+        <v>1.960872162757562e-26</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>1.917088390864055e-26</v>
+        <v>1.917845725955342e-26</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>1.813662406378096e-26</v>
+        <v>1.819352279822717e-26</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>1.629654786199095e-26</v>
+        <v>1.628537301868184e-26</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>1.333094252158933e-26</v>
+        <v>1.340004000621382e-26</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>7.502192375723367e-27</v>
+        <v>7.549695947215185e-27</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>5.987729475850878e-27</v>
+        <v>6.050636082474021e-27</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>4.609951955507887e-27</v>
+        <v>4.633872773294482e-27</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>3.215271330190621e-27</v>
+        <v>3.233769227519781e-27</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>2.850263128994339e-27</v>
+        <v>2.854674560098389e-27</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>2.689319399721401e-27</v>
+        <v>2.690223261577181e-27</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>2.662697925599937e-27</v>
+        <v>2.647200315505387e-27</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>2.473860233969061e-27</v>
+        <v>2.457328333189868e-27</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>2.44208388349786e-27</v>
+        <v>2.443848269308513e-27</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>2.450485923343481e-27</v>
+        <v>2.432764381237312e-27</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.412267717085561e-27</v>
+        <v>2.415583655351201e-27</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>2.309426385868886e-27</v>
+        <v>2.330634655046492e-27</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>2.202440062392124e-27</v>
+        <v>2.192595105060887e-27</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>2.127594601785504e-27</v>
+        <v>2.12378882897306e-27</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.956255419746386e-27</v>
+        <v>1.946035566669539e-27</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.944470021928718e-27</v>
+        <v>1.927558817744425e-27</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.962759950825275e-27</v>
+        <v>1.960216726450864e-27</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.879417646967905e-27</v>
+        <v>1.851622286377044e-27</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.571856315097684e-27</v>
+        <v>1.558063839971111e-27</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.311950594504581e-27</v>
+        <v>1.317630082947679e-27</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.175346361460661e-27</v>
+        <v>1.175411394306974e-27</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.12473322026191e-27</v>
+        <v>1.139849730385147e-27</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.348963479593684e-27</v>
+        <v>1.344051720888961e-27</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.188042870228515e-27</v>
+        <v>2.178041063535637e-27</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>2.565465596095206e-27</v>
+        <v>2.567719231517063e-27</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>2.650132246003082e-27</v>
+        <v>2.642977903342878e-27</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.598442294345914e-27</v>
+        <v>2.595055095760168e-27</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.61556597688302e-27</v>
+        <v>2.613256702456643e-27</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.597525974905292e-27</v>
+        <v>2.607235612043264e-27</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.343800380618243e-27</v>
+        <v>2.356863232100717e-27</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.110195310267712e-27</v>
+        <v>2.123957338152976e-27</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.184901131122351e-27</v>
+        <v>1.187152809591961e-27</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>6.269879614536731e-28</v>
+        <v>6.322648204881448e-28</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>4.654864157776713e-28</v>
+        <v>4.657240657354177e-28</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>4.267796364528838e-28</v>
+        <v>4.30272479204682e-28</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>5.436165655772593e-28</v>
+        <v>5.437343196406974e-28</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>5.80448433881653e-28</v>
+        <v>5.791868504017491e-28</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>8.093010776965274e-28</v>
+        <v>8.052856778976321e-28</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>9.677985294405913e-28</v>
+        <v>9.837214987628911e-28</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>9.602972664486018e-28</v>
+        <v>9.617146917982123e-28</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>8.706598653559313e-28</v>
+        <v>8.717131649550916e-28</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>7.387055867386865e-28</v>
+        <v>7.378303560325683e-28</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>6.245023679753534e-28</v>
+        <v>6.219903888386708e-28</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>5.036510936925999e-28</v>
+        <v>5.109621066487488e-28</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>4.418240057926687e-28</v>
+        <v>4.380977969500504e-28</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>4.284273888359587e-28</v>
+        <v>4.199824693534416e-28</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>3.915290203228813e-28</v>
+        <v>3.599667920845167e-28</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>3.823614247763622e-28</v>
+        <v>3.798877944096009e-28</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>3.589725914088484e-28</v>
+        <v>3.600936183239142e-28</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>3.723616797387684e-28</v>
+        <v>3.589812272894637e-28</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>4.076447851180536e-28</v>
+        <v>4.036566475366844e-28</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>4.370777780354409e-28</v>
+        <v>4.350772318072569e-28</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.672360589759408e-28</v>
+        <v>4.652265528184782e-28</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>5.117843398755334e-28</v>
+        <v>5.106493099944997e-28</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>5.345916207277864e-28</v>
+        <v>5.355000813705126e-28</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>4.983205467476216e-28</v>
+        <v>4.96970355373995e-28</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>4.268941178001911e-28</v>
+        <v>4.282467263925545e-28</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>4.188480143722017e-28</v>
+        <v>4.206023633919166e-28</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>3.574154708405144e-28</v>
+        <v>3.598913121903347e-28</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>3.379191847060772e-28</v>
+        <v>3.388034266201766e-28</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>3.287121351049031e-28</v>
+        <v>3.300198094413994e-28</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>4.003377512007116e-28</v>
+        <v>4.025192649725155e-28</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>3.462693477608321e-28</v>
+        <v>3.47075024016694e-28</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>3.489742516215482e-28</v>
+        <v>3.508313618421896e-28</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>3.114161228671802e-28</v>
+        <v>3.127067993006083e-28</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>2.86140798429538e-28</v>
+        <v>2.873952782553255e-28</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>2.667642468357015e-28</v>
+        <v>2.669634727231379e-28</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>2.420589038821157e-28</v>
+        <v>2.437621087367268e-28</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2.219415382219298e-28</v>
+        <v>2.229417880032289e-28</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.228719973908124e-28</v>
+        <v>2.242746744940618e-28</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>1.099392125006086e-28</v>
+        <v>1.105675043956179e-28</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>4.326876900912375e-29</v>
+        <v>4.455456168405889e-29</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>2.542753023934346e-29</v>
+        <v>2.597758560145361e-29</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>3.647414844789216e-29</v>
+        <v>3.709893328121906e-29</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>2.259113705129711e-29</v>
+        <v>2.331575956803513e-29</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.774049544952707e-29</v>
+        <v>1.842708540381969e-29</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>1.436754140191126e-29</v>
+        <v>1.487424007801062e-29</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>1.40664738505288e-29</v>
+        <v>1.28749438784734e-29</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.86452898410882e-29</v>
+        <v>1.879016651702768e-29</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>3.075771756094536e-29</v>
+        <v>3.055416886028015e-29</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>3.085463658551606e-29</v>
+        <v>3.116034427769236e-29</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>2.396327884861481e-29</v>
+        <v>2.436269611259741e-29</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>2.05096623162064e-29</v>
+        <v>2.092660586810211e-29</v>
       </c>
     </row>
   </sheetData>
